--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Cd53.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Cd53.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H2">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I2">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J2">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.469578333333333</v>
+        <v>0.6808546666666667</v>
       </c>
       <c r="N2">
-        <v>4.408735</v>
+        <v>2.042564</v>
       </c>
       <c r="O2">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="P2">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="Q2">
-        <v>0.2587961735161111</v>
+        <v>0.06698270905822223</v>
       </c>
       <c r="R2">
-        <v>2.329165561645</v>
+        <v>0.602844381524</v>
       </c>
       <c r="S2">
-        <v>9.969471014878812E-05</v>
+        <v>3.430247801314753E-05</v>
       </c>
       <c r="T2">
-        <v>9.969471014878809E-05</v>
+        <v>3.430247801314752E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H3">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I3">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J3">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>258.8225046666666</v>
+        <v>310.7256466666667</v>
       </c>
       <c r="N3">
-        <v>776.4675139999999</v>
+        <v>932.1769400000001</v>
       </c>
       <c r="O3">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="P3">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="Q3">
-        <v>45.57924699097755</v>
+        <v>30.56929269428223</v>
       </c>
       <c r="R3">
-        <v>410.213222918798</v>
+        <v>275.12363424854</v>
       </c>
       <c r="S3">
-        <v>0.01755825735685635</v>
+        <v>0.01565482353978291</v>
       </c>
       <c r="T3">
-        <v>0.01755825735685634</v>
+        <v>0.01565482353978291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H4">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I4">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J4">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1662686666666667</v>
+        <v>0.149039</v>
       </c>
       <c r="N4">
-        <v>0.4988060000000001</v>
+        <v>0.447117</v>
       </c>
       <c r="O4">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="P4">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="Q4">
-        <v>0.02928030016022223</v>
+        <v>0.01466250649966667</v>
       </c>
       <c r="R4">
-        <v>0.263522701442</v>
+        <v>0.131962558497</v>
       </c>
       <c r="S4">
-        <v>1.127949844807556E-05</v>
+        <v>7.508808077399036E-06</v>
       </c>
       <c r="T4">
-        <v>1.127949844807556E-05</v>
+        <v>7.508808077399033E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H5">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I5">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J5">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>319.1227823333334</v>
+        <v>200.0903396666667</v>
       </c>
       <c r="N5">
-        <v>957.3683470000001</v>
+        <v>600.271019</v>
       </c>
       <c r="O5">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="P5">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="Q5">
-        <v>56.19826658872545</v>
+        <v>19.68495431318656</v>
       </c>
       <c r="R5">
-        <v>505.784399298529</v>
+        <v>177.164588818679</v>
       </c>
       <c r="S5">
-        <v>0.02164896730236437</v>
+        <v>0.01008085104367704</v>
       </c>
       <c r="T5">
-        <v>0.02164896730236437</v>
+        <v>0.01008085104367704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>5.057822</v>
       </c>
       <c r="I6">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J6">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.469578333333333</v>
+        <v>0.6808546666666667</v>
       </c>
       <c r="N6">
-        <v>4.408735</v>
+        <v>2.042564</v>
       </c>
       <c r="O6">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="P6">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="Q6">
-        <v>2.477621875018889</v>
+        <v>1.147880570623111</v>
       </c>
       <c r="R6">
-        <v>22.29859687517</v>
+        <v>10.330925135608</v>
       </c>
       <c r="S6">
-        <v>0.0009544414483892203</v>
+        <v>0.0005878404828519719</v>
       </c>
       <c r="T6">
-        <v>0.0009544414483892201</v>
+        <v>0.0005878404828519718</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.057822</v>
       </c>
       <c r="I7">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J7">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>258.8225046666666</v>
+        <v>310.7256466666667</v>
       </c>
       <c r="N7">
-        <v>776.4675139999999</v>
+        <v>932.1769400000001</v>
       </c>
       <c r="O7">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="P7">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="Q7">
-        <v>436.3593860660564</v>
+        <v>523.8650038916311</v>
       </c>
       <c r="R7">
-        <v>3927.234474594507</v>
+        <v>4714.78503502468</v>
       </c>
       <c r="S7">
-        <v>0.1680964672835489</v>
+        <v>0.2682762168103784</v>
       </c>
       <c r="T7">
-        <v>0.1680964672835489</v>
+        <v>0.2682762168103784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.057822</v>
       </c>
       <c r="I8">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J8">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1662686666666667</v>
+        <v>0.149039</v>
       </c>
       <c r="N8">
-        <v>0.4988060000000001</v>
+        <v>0.447117</v>
       </c>
       <c r="O8">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="P8">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="Q8">
-        <v>0.2803191067257778</v>
+        <v>0.2512709110193333</v>
       </c>
       <c r="R8">
-        <v>2.522871960532</v>
+        <v>2.261438199174</v>
       </c>
       <c r="S8">
-        <v>0.0001079858782860012</v>
+        <v>0.000128678206984616</v>
       </c>
       <c r="T8">
-        <v>0.0001079858782860012</v>
+        <v>0.0001286782069846159</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.057822</v>
       </c>
       <c r="I9">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J9">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>319.1227823333334</v>
+        <v>200.0903396666667</v>
       </c>
       <c r="N9">
-        <v>957.3683470000001</v>
+        <v>600.271019</v>
       </c>
       <c r="O9">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="P9">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="Q9">
-        <v>538.0220763955815</v>
+        <v>337.3404406511797</v>
       </c>
       <c r="R9">
-        <v>4842.198687560234</v>
+        <v>3036.063965860618</v>
       </c>
       <c r="S9">
-        <v>0.2072594591765378</v>
+        <v>0.1727552261035665</v>
       </c>
       <c r="T9">
-        <v>0.2072594591765378</v>
+        <v>0.1727552261035665</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H10">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I10">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J10">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.469578333333333</v>
+        <v>0.6808546666666667</v>
       </c>
       <c r="N10">
-        <v>4.408735</v>
+        <v>2.042564</v>
       </c>
       <c r="O10">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="P10">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="Q10">
-        <v>2.05880870524</v>
+        <v>0.165541641944</v>
       </c>
       <c r="R10">
-        <v>18.52927834716</v>
+        <v>1.489874777496</v>
       </c>
       <c r="S10">
-        <v>0.0007931042191700944</v>
+        <v>8.477543851068469E-05</v>
       </c>
       <c r="T10">
-        <v>0.0007931042191700941</v>
+        <v>8.477543851068467E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H11">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I11">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J11">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>258.8225046666666</v>
+        <v>310.7256466666667</v>
       </c>
       <c r="N11">
-        <v>776.4675139999999</v>
+        <v>932.1769400000001</v>
       </c>
       <c r="O11">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="P11">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="Q11">
-        <v>362.597905557776</v>
+        <v>75.54921227924001</v>
       </c>
       <c r="R11">
-        <v>3263.381150019984</v>
+        <v>679.9429105131601</v>
       </c>
       <c r="S11">
-        <v>0.1396817140068329</v>
+        <v>0.03868946522999926</v>
       </c>
       <c r="T11">
-        <v>0.1396817140068328</v>
+        <v>0.03868946522999926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H12">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I12">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J12">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1662686666666667</v>
+        <v>0.149039</v>
       </c>
       <c r="N12">
-        <v>0.4988060000000001</v>
+        <v>0.447117</v>
       </c>
       <c r="O12">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="P12">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="Q12">
-        <v>0.2329344211040001</v>
+        <v>0.036237044382</v>
       </c>
       <c r="R12">
-        <v>2.096409789936</v>
+        <v>0.326133399438</v>
       </c>
       <c r="S12">
-        <v>8.9732121152067E-05</v>
+        <v>1.855733271544089E-05</v>
       </c>
       <c r="T12">
-        <v>8.973212115206699E-05</v>
+        <v>1.855733271544089E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H13">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I13">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J13">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>319.1227823333334</v>
+        <v>200.0903396666667</v>
       </c>
       <c r="N13">
-        <v>957.3683470000001</v>
+        <v>600.271019</v>
       </c>
       <c r="O13">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="P13">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="Q13">
-        <v>447.075700155448</v>
+        <v>48.649565005874</v>
       </c>
       <c r="R13">
-        <v>4023.681301399032</v>
+        <v>437.846085052866</v>
       </c>
       <c r="S13">
-        <v>0.1722246574823841</v>
+        <v>0.02491390177295817</v>
       </c>
       <c r="T13">
-        <v>0.1722246574823841</v>
+        <v>0.02491390177295817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H14">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I14">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J14">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.469578333333333</v>
+        <v>0.6808546666666667</v>
       </c>
       <c r="N14">
-        <v>4.408735</v>
+        <v>2.042564</v>
       </c>
       <c r="O14">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="P14">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="Q14">
-        <v>1.221821632257222</v>
+        <v>0.4494323924182223</v>
       </c>
       <c r="R14">
-        <v>10.996394690315</v>
+        <v>4.044891531764001</v>
       </c>
       <c r="S14">
-        <v>0.0004706760220850786</v>
+        <v>0.0002301585734002191</v>
       </c>
       <c r="T14">
-        <v>0.0004706760220850785</v>
+        <v>0.000230158573400219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H15">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I15">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J15">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>258.8225046666666</v>
+        <v>310.7256466666667</v>
       </c>
       <c r="N15">
-        <v>776.4675139999999</v>
+        <v>932.1769400000001</v>
       </c>
       <c r="O15">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="P15">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="Q15">
-        <v>215.1875323307451</v>
+        <v>205.1101029398823</v>
       </c>
       <c r="R15">
-        <v>1936.687790976706</v>
+        <v>1845.99092645894</v>
       </c>
       <c r="S15">
-        <v>0.08289557906469996</v>
+        <v>0.1050388211419479</v>
       </c>
       <c r="T15">
-        <v>0.08289557906469996</v>
+        <v>0.1050388211419479</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H16">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I16">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J16">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1662686666666667</v>
+        <v>0.149039</v>
       </c>
       <c r="N16">
-        <v>0.4988060000000001</v>
+        <v>0.447117</v>
       </c>
       <c r="O16">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="P16">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="Q16">
-        <v>0.1382373767304445</v>
+        <v>0.09838069357966668</v>
       </c>
       <c r="R16">
-        <v>1.244136390574</v>
+        <v>0.8854262422170001</v>
       </c>
       <c r="S16">
-        <v>5.325246898989613E-05</v>
+        <v>5.038168246526708E-05</v>
       </c>
       <c r="T16">
-        <v>5.325246898989613E-05</v>
+        <v>5.038168246526706E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H17">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I17">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J17">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>319.1227823333334</v>
+        <v>200.0903396666667</v>
       </c>
       <c r="N17">
-        <v>957.3683470000001</v>
+        <v>600.271019</v>
       </c>
       <c r="O17">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="P17">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="Q17">
-        <v>265.3217660854959</v>
+        <v>132.0796999107466</v>
       </c>
       <c r="R17">
-        <v>2387.895894769463</v>
+        <v>1188.717299196719</v>
       </c>
       <c r="S17">
-        <v>0.1022085303916264</v>
+        <v>0.06763926192106383</v>
       </c>
       <c r="T17">
-        <v>0.1022085303916264</v>
+        <v>0.06763926192106383</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H18">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I18">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J18">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.469578333333333</v>
+        <v>0.6808546666666667</v>
       </c>
       <c r="N18">
-        <v>4.408735</v>
+        <v>2.042564</v>
       </c>
       <c r="O18">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="P18">
-        <v>0.002535586904271686</v>
+        <v>0.00133071464714358</v>
       </c>
       <c r="Q18">
-        <v>0.5650479705722222</v>
+        <v>0.768659273140889</v>
       </c>
       <c r="R18">
-        <v>5.085431735149999</v>
+        <v>6.917933458268001</v>
       </c>
       <c r="S18">
-        <v>0.0002176705044785051</v>
+        <v>0.0003936376743675572</v>
       </c>
       <c r="T18">
-        <v>0.000217670504478505</v>
+        <v>0.0003936376743675571</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H19">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I19">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J19">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>258.8225046666666</v>
+        <v>310.7256466666667</v>
       </c>
       <c r="N19">
-        <v>776.4675139999999</v>
+        <v>932.1769400000001</v>
       </c>
       <c r="O19">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="P19">
-        <v>0.446568201556862</v>
+        <v>0.6073060661930214</v>
       </c>
       <c r="Q19">
-        <v>99.5163903026511</v>
+        <v>350.7975510873089</v>
       </c>
       <c r="R19">
-        <v>895.6475127238599</v>
+        <v>3157.17795978578</v>
       </c>
       <c r="S19">
-        <v>0.03833618384492393</v>
+        <v>0.179646739470913</v>
       </c>
       <c r="T19">
-        <v>0.03833618384492392</v>
+        <v>0.179646739470913</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H20">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I20">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J20">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.1662686666666667</v>
+        <v>0.149039</v>
       </c>
       <c r="N20">
-        <v>0.4988060000000001</v>
+        <v>0.447117</v>
       </c>
       <c r="O20">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="P20">
-        <v>0.0002868772927772122</v>
+        <v>0.0002912932671323377</v>
       </c>
       <c r="Q20">
-        <v>0.06392974810444446</v>
+        <v>0.1682594171976667</v>
       </c>
       <c r="R20">
-        <v>0.5753677329400001</v>
+        <v>1.514334754779</v>
       </c>
       <c r="S20">
-        <v>2.462732590117239E-05</v>
+        <v>8.616723688961475E-05</v>
       </c>
       <c r="T20">
-        <v>2.462732590117238E-05</v>
+        <v>8.616723688961474E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H21">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I21">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J21">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>319.1227823333334</v>
+        <v>200.0903396666667</v>
       </c>
       <c r="N21">
-        <v>957.3683470000001</v>
+        <v>600.271019</v>
       </c>
       <c r="O21">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="P21">
-        <v>0.550609334246089</v>
+        <v>0.3910719258927027</v>
       </c>
       <c r="Q21">
-        <v>122.7016460645589</v>
+        <v>225.8944567475392</v>
       </c>
       <c r="R21">
-        <v>1104.31481458103</v>
+        <v>2033.050110727853</v>
       </c>
       <c r="S21">
-        <v>0.04726771989317628</v>
+        <v>0.1156826850514372</v>
       </c>
       <c r="T21">
-        <v>0.04726771989317627</v>
+        <v>0.1156826850514372</v>
       </c>
     </row>
   </sheetData>
